--- a/1.开发文档/库存接口文档/货源接口文档.xlsx
+++ b/1.开发文档/库存接口文档/货源接口文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\1.开发文档\库存接口文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\1.开发文档\库存接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DA1C5-E8BC-4228-9F5E-AFB9F018413F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461CD59-103E-4507-A377-3B0B268948C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="503" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口清单" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="库区库存占用" sheetId="9" r:id="rId5"/>
     <sheet name="库位库存占用" sheetId="10" r:id="rId6"/>
     <sheet name="库位库存占用释放" sheetId="11" r:id="rId7"/>
+    <sheet name="库区占用数据模型" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="196">
   <si>
     <t>库存类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -633,12 +634,257 @@
     <t>注意：每个请求的日志都保存到MongoDB中去，库存表中的日志表不用了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1.、检查请求参数的合法性
+2、获取该订单的占用情况，判断是否为修改或新增
+3、如果是修改数据，需要计算出增量数据
+         如果增量数据为负，即占用数减小的情况，这时，无需判断可用大于0，否则需要判断
+4、修改数据时，需要计算出，哪些物料已经删除了，哪些物料是修改，哪些物料是新增的情况
+      程序内部维护3个物料列表（新增列表、修改列表、删除物料的列表），保存时，要一起提交
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、检查请求参数的合法性
+2、获取该订单的占用情况，修改库位占用表 执行数 = 占用数
+3、对库位库存表对应的占用数 = 占用数 - 当前订单中物料的执行数
+4、计算出对应的库区占用数 = 占用数 - 订单中物料的执行数（如果是同一物料，需要求和）
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_area_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_type_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_no</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂代码</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存类型</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp可用</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>F001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>K001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单主表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerCode</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O201812100001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_num</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_num</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、库区库存表（storage_inventory_area_storage）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、ocss订单</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_id</t>
+  </si>
+  <si>
+    <t>库存表主键ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>used_num</t>
+  </si>
+  <si>
+    <t>占用数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_from</t>
+  </si>
+  <si>
+    <t>bill_type</t>
+  </si>
+  <si>
+    <t>bill_code</t>
+  </si>
+  <si>
+    <t>bill_row_num</t>
+  </si>
+  <si>
+    <t>bill_key</t>
+  </si>
+  <si>
+    <t>单据来源</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据行号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据key</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocss</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocss_order</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>inout_type</t>
+  </si>
+  <si>
+    <t>出入库类别</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O201812100001-1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O201812100001-2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 库区占用表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2库区库存表修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、基础数据</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区库位表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_code</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>L002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>F002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>L003</t>
+  </si>
+  <si>
+    <t>L004</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -778,6 +1024,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -906,7 +1159,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1280,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,7 +1301,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -1339,13 +1613,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
@@ -1469,7 +1743,7 @@
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="27"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="40" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="30"/>
@@ -4583,13 +4857,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5055,13 +5329,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5079,7 +5353,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:E41"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5092,13 +5366,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5582,13 +5856,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5618,13 +5892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5893,13 +6167,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
@@ -6007,7 +6281,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E34"/>
+      <selection activeCell="A9" sqref="A9:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6020,13 +6294,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6417,13 +6691,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6438,10 +6712,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C442BBF6-6CC0-4E38-9963-955B2825CD01}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6454,13 +6728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6830,9 +7104,24 @@
         <v>115</v>
       </c>
     </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6842,10 +7131,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96D7B9-B006-4D56-AC87-A07D97A4DD06}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6858,13 +7147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -7220,12 +7509,669 @@
         <v>115</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E148B0-2B03-4C9F-BE57-7F3FC7F23B35}">
+  <dimension ref="B1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="50" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="50" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="48" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="48" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="50">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="50">
+        <v>100</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="50">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="50">
+        <v>100</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="50">
+        <v>1</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="50">
+        <v>2</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="50">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="50">
+        <v>20</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="50">
+        <v>1</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="50">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="50">
+        <v>30</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="50">
+        <v>2</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="N30" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="50">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="50">
+        <v>100</v>
+      </c>
+      <c r="I35" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="50">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="50">
+        <v>100</v>
+      </c>
+      <c r="I36" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.开发文档/库存接口文档/货源接口文档.xlsx
+++ b/1.开发文档/库存接口文档/货源接口文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\1.开发文档\库存接口文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\1.开发文档\库存接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461CD59-103E-4507-A377-3B0B268948C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58077213-E6C4-4329-A8D1-5BFC60E13B0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="503" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="651" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口清单" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="库位库存占用" sheetId="10" r:id="rId6"/>
     <sheet name="库位库存占用释放" sheetId="11" r:id="rId7"/>
     <sheet name="库区占用数据模型" sheetId="12" r:id="rId8"/>
+    <sheet name="库位占用数据模型" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="212">
   <si>
     <t>库存类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -288,10 +289,6 @@
   </si>
   <si>
     <t>库位代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到组织与货源关系</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -519,14 +516,6 @@
   </si>
   <si>
     <t>factoryLocationCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改单据为0，作废单据为-1，作废时，可以不传BillDetail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果为空，默认为empty</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -592,10 +581,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>为空赋值为empty</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.、检查请求参数，组织ID 和 下面这4个参数，必须要传一个值，目的就是为了得到组织ID，
 销售公司代码
 销售组织代码
@@ -721,10 +706,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>empty</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>订单主表</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -837,10 +818,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>O201812100001-2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1 库区占用表</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -877,6 +854,94 @@
   </si>
   <si>
     <t>L004</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、库位库存表（storage_inventory_location_storage）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>子项 List&lt;materielListRequest&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;storageResponse&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到组织与货源关系，配额和预留要用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E201812100001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空赋值为emptyVal</t>
+  </si>
+  <si>
+    <t>如果为空，默认为emptyVal</t>
+  </si>
+  <si>
+    <t>emptyVal</t>
+  </si>
+  <si>
+    <t>修改单据为1，作废单据为-1，作废时，可以不传BillDetail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;materielListRequest&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、ocss-erp预订单</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分订单明细</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_area_code
+ 库区代码</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_type_code
+库存类型</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory_code
+工厂代码</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_code
+库位代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>split_num</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 库位占用表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2库位库存表修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocss_erp</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1224,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1348,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1304,23 +1387,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,13 +1681,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
@@ -1642,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1657,13 +1725,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,13 +1740,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1687,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1702,13 +1770,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1717,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1744,7 +1812,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="29"/>
       <c r="D11" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -4841,10 +4909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18A24D-0908-4023-94D2-82386BEAA8EC}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4857,13 +4925,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -4893,25 +4961,23 @@
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="D4" s="21"/>
       <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>51</v>
@@ -4921,40 +4987,44 @@
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>51</v>
@@ -4963,15 +5033,15 @@
         <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>51</v>
@@ -4980,15 +5050,15 @@
         <v>24</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>51</v>
@@ -4997,15 +5067,15 @@
         <v>24</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>51</v>
@@ -5014,241 +5084,237 @@
         <v>24</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="B29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
-        <v>76</v>
+      <c r="A30" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>51</v>
@@ -5258,88 +5324,75 @@
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>0</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="20" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20" t="s">
-        <v>47</v>
+      <c r="A34" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5353,7 +5406,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5366,13 +5419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5411,7 +5464,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E4" s="20"/>
     </row>
@@ -5439,7 +5492,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -5558,7 +5611,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="20" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5621,7 +5674,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5674,7 +5727,7 @@
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -5687,7 +5740,7 @@
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -5702,7 +5755,7 @@
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -5712,19 +5765,21 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -5735,7 +5790,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5761,7 +5816,7 @@
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>17</v>
@@ -5852,17 +5907,17 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="A41" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5892,13 +5947,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5908,7 +5963,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
       <c r="E2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6009,7 +6064,7 @@
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>57</v>
@@ -6022,7 +6077,7 @@
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>59</v>
@@ -6037,7 +6092,7 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>61</v>
@@ -6047,15 +6102,15 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -6070,7 +6125,7 @@
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6096,7 +6151,7 @@
     </row>
     <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>17</v>
@@ -6145,7 +6200,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6153,7 +6208,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>49</v>
@@ -6163,17 +6218,17 @@
     </row>
     <row r="25" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
@@ -6278,10 +6333,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C360324-BFE2-4D16-B7AD-78968BB7FE55}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A25"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6294,13 +6349,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6330,10 +6385,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
@@ -6343,10 +6398,10 @@
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
@@ -6363,7 +6418,7 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6389,30 +6444,30 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6445,17 +6500,17 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6467,7 +6522,7 @@
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6493,51 +6548,49 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>51</v>
@@ -6547,162 +6600,149 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+    <row r="25" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A27" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6728,13 +6768,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6764,10 +6804,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
@@ -6777,10 +6817,10 @@
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
@@ -6797,7 +6837,7 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6823,30 +6863,30 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6879,17 +6919,17 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6901,7 +6941,7 @@
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6927,26 +6967,26 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
@@ -6966,7 +7006,7 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>66</v>
@@ -7004,18 +7044,18 @@
         <v>24</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="20"/>
@@ -7063,7 +7103,7 @@
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -7076,7 +7116,7 @@
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -7091,7 +7131,7 @@
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -7101,22 +7141,22 @@
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
+      <c r="A32" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7147,13 +7187,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="A1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -7183,10 +7223,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
@@ -7196,10 +7236,10 @@
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
@@ -7216,7 +7256,7 @@
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7242,30 +7282,30 @@
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7298,17 +7338,17 @@
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7320,7 +7360,7 @@
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7346,26 +7386,26 @@
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
@@ -7385,7 +7425,7 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>66</v>
@@ -7423,18 +7463,18 @@
         <v>24</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="20"/>
@@ -7468,7 +7508,7 @@
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -7481,7 +7521,7 @@
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -7496,7 +7536,7 @@
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>61</v>
@@ -7506,22 +7546,22 @@
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7536,642 +7576,1404 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E148B0-2B03-4C9F-BE57-7F3FC7F23B35}">
-  <dimension ref="B1:N44"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="50" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="50" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="48" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="48" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="49" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="51" t="s">
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="F12" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="43">
+        <v>100</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="43">
+        <v>100</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="43">
+        <v>1</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="43">
+        <v>65</v>
+      </c>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="43">
+        <v>2</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="43">
+        <v>30</v>
+      </c>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="43">
+        <v>65</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="43">
+        <v>1</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="43">
+        <v>30</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="43">
+        <v>1</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="H31" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="D32" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="52" t="s">
+      <c r="E32" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="50">
+      <c r="F32" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="43">
         <v>100</v>
       </c>
-      <c r="I15" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="50">
+      <c r="H32" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="43">
         <v>2000</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="50">
+      <c r="C33" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="43">
         <v>100</v>
       </c>
-      <c r="I16" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="50">
-        <v>1</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="50">
-        <v>2</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="50">
+      <c r="H33" s="43">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="M28" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="50">
-        <v>20</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="50">
-        <v>1</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="N29" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="50">
-        <v>2000</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="50">
-        <v>30</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="L30" s="50">
-        <v>2</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="N30" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="50">
-        <v>1000</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="50">
-        <v>100</v>
-      </c>
-      <c r="I35" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="50">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="50">
-        <v>100</v>
-      </c>
-      <c r="I36" s="50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46202A88-291A-4322-AB90-1C680A883645}">
+  <dimension ref="B1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="41" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="54">
+        <v>40</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="43">
+        <v>50</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="54">
+        <v>60</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="43">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="43">
+        <v>50</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="43">
+        <v>1</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="43">
+        <v>2</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="43">
+        <v>2</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="43">
+        <v>3</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="43">
+        <v>40</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="43">
+        <v>1</v>
+      </c>
+      <c r="L34" s="43" t="str">
+        <f>J34&amp;"-"&amp;K34</f>
+        <v>E201812100001-1</v>
+      </c>
+      <c r="M34" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="43">
+        <v>25</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="43">
+        <v>2</v>
+      </c>
+      <c r="L35" s="43" t="str">
+        <f t="shared" ref="L35:L36" si="0">J35&amp;"-"&amp;K35</f>
+        <v>E201812100001-2</v>
+      </c>
+      <c r="M35" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="43">
+        <v>30</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36" s="43">
+        <v>3</v>
+      </c>
+      <c r="L36" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>E201812100001-3</v>
+      </c>
+      <c r="M36" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="54">
+        <v>40</v>
+      </c>
+      <c r="H40" s="43">
+        <v>40</v>
+      </c>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="43">
+        <v>50</v>
+      </c>
+      <c r="H41" s="43">
+        <v>30</v>
+      </c>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="54">
+        <v>60</v>
+      </c>
+      <c r="H42" s="43">
+        <v>25</v>
+      </c>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.开发文档/库存接口文档/货源接口文档.xlsx
+++ b/1.开发文档/库存接口文档/货源接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\1.开发文档\库存接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58077213-E6C4-4329-A8D1-5BFC60E13B0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375F4A6-B466-473E-A901-EB439419E6DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="651" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="746" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口清单" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="218">
   <si>
     <t>库存类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -889,10 +889,6 @@
     <t>emptyVal</t>
   </si>
   <si>
-    <t>修改单据为1，作废单据为-1，作废时，可以不传BillDetail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;materielListRequest&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -943,6 +939,34 @@
   <si>
     <t>ocss_erp</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项 List&lt;T&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增和修改单据为1，作废单据为-1，作废时，可以不传BillDetail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为空，默认为emptyVal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>库区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1064,6 +1088,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1366,6 +1391,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,9 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1681,13 +1706,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="27"/>
@@ -4911,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18A24D-0908-4023-94D2-82386BEAA8EC}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4925,13 +4950,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5097,7 +5122,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5382,13 +5407,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5419,13 +5444,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -5911,13 +5936,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5933,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A440E-FAA3-46A3-BBDD-4254B836A90D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5947,13 +5972,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6222,13 +6247,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
@@ -6288,10 +6313,18 @@
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="38"/>
@@ -6335,8 +6368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C360324-BFE2-4D16-B7AD-78968BB7FE55}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6349,13 +6382,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -6406,7 +6439,7 @@
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="20" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6510,7 +6543,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="20" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6625,7 +6658,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6731,13 +6764,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6768,13 +6801,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -7150,13 +7183,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7187,13 +7220,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
@@ -7555,13 +7588,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7579,7 +7612,7 @@
   <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7602,16 +7635,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="42" t="s">
@@ -7690,16 +7723,16 @@
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="44" t="s">
@@ -7864,8 +7897,8 @@
       <c r="F20" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>198</v>
+      <c r="G20" s="43">
+        <v>1</v>
       </c>
       <c r="H20" s="43">
         <v>65</v>
@@ -7887,9 +7920,6 @@
       </c>
       <c r="F21" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>198</v>
       </c>
       <c r="H21" s="43">
         <v>30</v>
@@ -8175,7 +8205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46202A88-291A-4322-AB90-1C680A883645}">
   <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8199,16 +8229,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="42" t="s">
@@ -8287,16 +8317,16 @@
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="44" t="s">
@@ -8329,7 +8359,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>136</v>
@@ -8360,7 +8390,7 @@
       <c r="F12" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="47">
         <v>40</v>
       </c>
       <c r="H12" s="43">
@@ -8406,7 +8436,7 @@
       <c r="F14" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="47">
         <v>60</v>
       </c>
       <c r="H14" s="43">
@@ -8438,7 +8468,7 @@
     </row>
     <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8475,10 +8505,10 @@
         <v>156</v>
       </c>
       <c r="D21" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>203</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>204</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>136</v>
@@ -8539,7 +8569,7 @@
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -8550,10 +8580,10 @@
         <v>156</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" s="44" t="s">
         <v>136</v>
@@ -8562,7 +8592,7 @@
         <v>137</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8637,7 +8667,7 @@
     <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8739,7 +8769,7 @@
         <v>175</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J34" s="43" t="s">
         <v>195</v>
@@ -8778,7 +8808,7 @@
         <v>175</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J35" s="43" t="s">
         <v>195</v>
@@ -8817,7 +8847,7 @@
         <v>175</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J36" s="43" t="s">
         <v>195</v>
@@ -8835,7 +8865,7 @@
     </row>
     <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8870,7 +8900,7 @@
         <v>145</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>136</v>
@@ -8902,7 +8932,7 @@
       <c r="F40" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="54">
+      <c r="G40" s="47">
         <v>40</v>
       </c>
       <c r="H40" s="43">
@@ -8950,7 +8980,7 @@
       <c r="F42" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G42" s="54">
+      <c r="G42" s="47">
         <v>60</v>
       </c>
       <c r="H42" s="43">

--- a/1.开发文档/库存接口文档/货源接口文档.xlsx
+++ b/1.开发文档/库存接口文档/货源接口文档.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\1.开发文档\库存接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375F4A6-B466-473E-A901-EB439419E6DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C751DC-480C-4E79-90DE-D5C0EC81C20D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="746" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="746" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口清单" sheetId="2" r:id="rId1"/>
     <sheet name="库区可用接口" sheetId="3" r:id="rId2"/>
     <sheet name="库位可用接口" sheetId="7" r:id="rId3"/>
     <sheet name="同步库位库存" sheetId="8" r:id="rId4"/>
-    <sheet name="库区库存占用" sheetId="9" r:id="rId5"/>
-    <sheet name="库位库存占用" sheetId="10" r:id="rId6"/>
-    <sheet name="库位库存占用释放" sheetId="11" r:id="rId7"/>
-    <sheet name="库区占用数据模型" sheetId="12" r:id="rId8"/>
-    <sheet name="库位占用数据模型" sheetId="13" r:id="rId9"/>
+    <sheet name="同步库区库存" sheetId="14" r:id="rId5"/>
+    <sheet name="库区库存占用" sheetId="9" r:id="rId6"/>
+    <sheet name="库位库存占用" sheetId="10" r:id="rId7"/>
+    <sheet name="库位库存占用释放" sheetId="11" r:id="rId8"/>
+    <sheet name="库区占用数据模型" sheetId="12" r:id="rId9"/>
+    <sheet name="库位占用数据模型" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="219">
   <si>
     <t>库存类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -967,6 +968,10 @@
   <si>
     <t>物料</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步库区库存-syncFactoryAreaInventory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4932,12 +4937,819 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46202A88-291A-4322-AB90-1C680A883645}">
+  <dimension ref="B1:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="41" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="47">
+        <v>40</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="43">
+        <v>50</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="47">
+        <v>60</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="43">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="43">
+        <v>50</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="43">
+        <v>1</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="43">
+        <v>2</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="43">
+        <v>2</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="43">
+        <v>3</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="43">
+        <v>40</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="43">
+        <v>1</v>
+      </c>
+      <c r="L34" s="43" t="str">
+        <f>J34&amp;"-"&amp;K34</f>
+        <v>E201812100001-1</v>
+      </c>
+      <c r="M34" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="43">
+        <v>25</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" s="43">
+        <v>2</v>
+      </c>
+      <c r="L35" s="43" t="str">
+        <f t="shared" ref="L35:L36" si="0">J35&amp;"-"&amp;K35</f>
+        <v>E201812100001-2</v>
+      </c>
+      <c r="M35" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="43">
+        <v>30</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="K36" s="43">
+        <v>3</v>
+      </c>
+      <c r="L36" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>E201812100001-3</v>
+      </c>
+      <c r="M36" s="43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="43">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="47">
+        <v>40</v>
+      </c>
+      <c r="H40" s="43">
+        <v>40</v>
+      </c>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="43">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="43">
+        <v>50</v>
+      </c>
+      <c r="H41" s="43">
+        <v>30</v>
+      </c>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="43">
+        <v>3000</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="47">
+        <v>60</v>
+      </c>
+      <c r="H42" s="43">
+        <v>25</v>
+      </c>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F18A24D-0908-4023-94D2-82386BEAA8EC}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5958,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A440E-FAA3-46A3-BBDD-4254B836A90D}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6365,6 +7177,460 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FD258-401D-4310-9E65-094520DF61E4}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A30:E30"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C360324-BFE2-4D16-B7AD-78968BB7FE55}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -6783,7 +8049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C442BBF6-6CC0-4E38-9963-955B2825CD01}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -7202,7 +8468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96D7B9-B006-4D56-AC87-A07D97A4DD06}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7607,7 +8873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E148B0-2B03-4C9F-BE57-7F3FC7F23B35}">
   <dimension ref="B1:N41"/>
   <sheetViews>
@@ -8199,811 +9465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46202A88-291A-4322-AB90-1C680A883645}">
-  <dimension ref="B1:N49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="43" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="43" customWidth="1"/>
-    <col min="10" max="10" width="15" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="41" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="43">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="47">
-        <v>40</v>
-      </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="43">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="43">
-        <v>50</v>
-      </c>
-      <c r="H13" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="43">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="47">
-        <v>60</v>
-      </c>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="43">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="43">
-        <v>50</v>
-      </c>
-      <c r="H15" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="43">
-        <v>1</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="43">
-        <v>2</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="43">
-        <v>1</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="43">
-        <v>2</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="43">
-        <v>3</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="43">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="43">
-        <v>40</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="43">
-        <v>1</v>
-      </c>
-      <c r="L34" s="43" t="str">
-        <f>J34&amp;"-"&amp;K34</f>
-        <v>E201812100001-1</v>
-      </c>
-      <c r="M34" s="43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="43">
-        <v>3000</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="43">
-        <v>25</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="K35" s="43">
-        <v>2</v>
-      </c>
-      <c r="L35" s="43" t="str">
-        <f t="shared" ref="L35:L36" si="0">J35&amp;"-"&amp;K35</f>
-        <v>E201812100001-2</v>
-      </c>
-      <c r="M35" s="43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="43">
-        <v>30</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" s="43">
-        <v>3</v>
-      </c>
-      <c r="L36" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>E201812100001-3</v>
-      </c>
-      <c r="M36" s="43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" s="41"/>
-    </row>
-    <row r="40" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="43">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="47">
-        <v>40</v>
-      </c>
-      <c r="H40" s="43">
-        <v>40</v>
-      </c>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="41" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="43">
-        <v>2000</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G41" s="43">
-        <v>50</v>
-      </c>
-      <c r="H41" s="43">
-        <v>30</v>
-      </c>
-      <c r="I41" s="41"/>
-    </row>
-    <row r="42" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="43">
-        <v>3000</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="G42" s="47">
-        <v>60</v>
-      </c>
-      <c r="H42" s="43">
-        <v>25</v>
-      </c>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I43" s="41"/>
-    </row>
-    <row r="44" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/1.开发文档/库存接口文档/货源接口文档.xlsx
+++ b/1.开发文档/库存接口文档/货源接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.虹信公司\0.18年\0.中泰化学\0.设计文档\1.开发文档\库存接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C751DC-480C-4E79-90DE-D5C0EC81C20D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F3C0E4-0B60-485C-B9A0-841113E33C27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="746" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="746" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口清单" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="219">
   <si>
     <t>库存类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1697,7 +1697,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7180,7 +7180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43FD258-401D-4310-9E65-094520DF61E4}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8470,10 +8470,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A96D7B9-B006-4D56-AC87-A07D97A4DD06}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8636,59 +8636,57 @@
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>102</v>
@@ -8698,23 +8696,23 @@
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>51</v>
@@ -8724,148 +8722,135 @@
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+    <row r="31" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+    <row r="32" spans="1:5" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
